--- a/Team-Data/2014-15/3-17-2014-15.xlsx
+++ b/Team-Data/2014-15/3-17-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -780,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -986,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -1123,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.439</v>
+        <v>0.446</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,7 +1297,7 @@
         <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.424</v>
@@ -1242,16 +1309,16 @@
         <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
@@ -1266,7 +1333,7 @@
         <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W5" t="n">
         <v>5.9</v>
@@ -1278,31 +1345,31 @@
         <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1350,16 +1417,16 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1532,10 +1599,10 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>24</v>
@@ -1672,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
@@ -1693,22 +1760,22 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1717,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>5</v>
@@ -1729,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
         <v>43</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.642</v>
+        <v>0.632</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,10 +1843,10 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>9.300000000000001</v>
@@ -1788,7 +1855,7 @@
         <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
@@ -1797,19 +1864,19 @@
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
         <v>12.7</v>
@@ -1830,25 +1897,25 @@
         <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,16 +1939,16 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1896,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2054,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.358</v>
+        <v>0.348</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,22 +2207,22 @@
         <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O10" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P10" t="n">
         <v>22.8</v>
@@ -2164,19 +2231,19 @@
         <v>0.707</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S10" t="n">
         <v>32.2</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>7.7</v>
@@ -2188,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,25 +2279,25 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2266,10 +2333,10 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2439,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -2501,13 +2568,13 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
         <v>11.5</v>
@@ -2519,13 +2586,13 @@
         <v>0.343</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
@@ -2537,7 +2604,7 @@
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V12" t="n">
         <v>16.7</v>
@@ -2546,25 +2613,25 @@
         <v>9.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
         <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2600,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,22 +2676,22 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2758,13 +2825,13 @@
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2815,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.632</v>
+        <v>0.627</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2895,7 +2962,7 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
         <v>42.3</v>
@@ -2907,7 +2974,7 @@
         <v>12.3</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X14" t="n">
         <v>4.9</v>
@@ -2916,37 +2983,37 @@
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA14" t="n">
         <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="AC14" t="n">
         <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -2994,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>0.262</v>
+        <v>0.258</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3128,13 +3195,13 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
@@ -3149,10 +3216,10 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3170,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA15" t="n">
         <v>22</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.701</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3235,16 +3302,16 @@
         <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>15.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.337</v>
+        <v>0.333</v>
       </c>
       <c r="O16" t="n">
         <v>18.2</v>
@@ -3253,7 +3320,7 @@
         <v>23.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>10.5</v>
@@ -3265,7 +3332,7 @@
         <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
         <v>13.4</v>
@@ -3280,19 +3347,19 @@
         <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
@@ -3334,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS16" t="n">
         <v>14</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3355,10 +3422,10 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3498,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O18" t="n">
         <v>16.1</v>
@@ -3623,22 +3690,22 @@
         <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y18" t="n">
         <v>4.7</v>
@@ -3650,13 +3717,13 @@
         <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3665,10 +3732,10 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>18</v>
@@ -3689,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3710,16 +3777,16 @@
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3889,10 +3956,10 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>9</v>
@@ -3907,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -3957,52 +4024,52 @@
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
         <v>16.8</v>
       </c>
       <c r="P20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="R20" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>32</v>
+      </c>
+      <c r="T20" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="U20" t="n">
         <v>21.9</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="R20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="U20" t="n">
-        <v>22</v>
-      </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4050,28 +4117,28 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
         <v>8</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>10</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -4124,70 +4191,70 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>0.209</v>
+        <v>0.197</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
         <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
         <v>21.4</v>
       </c>
       <c r="V21" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z21" t="n">
         <v>22</v>
@@ -4196,16 +4263,16 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.9</v>
+        <v>-9.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
         <v>30</v>
@@ -4214,25 +4281,25 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4423,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -4503,55 +4570,55 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>82.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="O23" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="P23" t="n">
         <v>19.6</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="O23" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>19.5</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -4560,10 +4627,10 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4584,13 +4651,13 @@
         <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4620,16 +4687,16 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -4936,10 +5003,10 @@
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>4</v>
@@ -4966,7 +5033,7 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5185,7 @@
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
         <v>4</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -5401,13 +5468,13 @@
         <v>65</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.615</v>
+        <v>0.631</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,52 +5483,52 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
         <v>19.5</v>
@@ -5473,7 +5540,7 @@
         <v>102.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD28" t="n">
         <v>27</v>
@@ -5482,10 +5549,10 @@
         <v>9</v>
       </c>
       <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
         <v>7</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5500,22 +5567,22 @@
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,19 +5591,19 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>11</v>
@@ -5551,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5718,7 +5785,7 @@
         <v>15</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5727,7 +5794,7 @@
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>18</v>
@@ -5900,7 +5967,7 @@
         <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6040,7 +6107,7 @@
         <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6052,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6073,16 +6140,16 @@
         <v>12</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-17-2014-15</t>
+          <t>2015-03-17</t>
         </is>
       </c>
     </row>
